--- a/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.673142413320317</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.813243220176349</v>
+        <v>0.8132432201763469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.01805213890965366</v>
@@ -649,7 +649,7 @@
         <v>0.5191190850275169</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1544471749322815</v>
+        <v>0.1544471749322811</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.554760463969164</v>
+        <v>-2.522173039208503</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.033672849362772</v>
+        <v>-3.086896405677019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.765062654129661</v>
+        <v>-2.11553663708728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.167639477209574</v>
+        <v>-3.938950424161862</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.834139893591944</v>
+        <v>-0.8371178704789061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5904224918838515</v>
+        <v>-0.5840450912693279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.288130842096293</v>
+        <v>-0.3337252770774186</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.496967026727845</v>
+        <v>-0.4839684369951132</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.880252682534142</v>
+        <v>2.597391228381308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.555372358350708</v>
+        <v>4.758389140132251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.391801598744154</v>
+        <v>7.071907791158124</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.676949693987856</v>
+        <v>4.760934311333251</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.510967151362884</v>
+        <v>4.014184468383426</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.271597909855643</v>
+        <v>2.371711158536958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.263608306740353</v>
+        <v>2.235602916706812</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.707366280586253</v>
+        <v>1.754521831827685</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.4154291619371201</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.969886098744287</v>
+        <v>1.969886098744285</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4022092191890025</v>
@@ -749,7 +749,7 @@
         <v>0.1891207563863235</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5606316029379427</v>
+        <v>0.5606316029379421</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.475594662357431</v>
+        <v>-1.575506161463309</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.283116418637626</v>
+        <v>-4.749635371938307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.783432331364869</v>
+        <v>-1.64696027270542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.005039264779312</v>
+        <v>-0.620864284546928</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3605908300147436</v>
+        <v>-0.3844164757985901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7441789060997822</v>
+        <v>-0.7869468810780971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5541885835262361</v>
+        <v>-0.5584877052308981</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2302132665828522</v>
+        <v>-0.1659818987926293</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.78911263089766</v>
+        <v>3.723328189213906</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.090738672829503</v>
+        <v>0.5771063617362771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.645199072858135</v>
+        <v>2.600621761444762</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.572273560779141</v>
+        <v>4.550196075629878</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.428005709998672</v>
+        <v>1.954087652980619</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5154860529797497</v>
+        <v>0.2529749447813122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.541910161366377</v>
+        <v>2.22351617287067</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.999605336503514</v>
+        <v>2.115404369195669</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.832841587861074</v>
+        <v>-1.920507129723774</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.503509905933539</v>
+        <v>-1.301151024061479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.935674504972418</v>
+        <v>-3.12488534939661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.641566218858126</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-0.6904653149951105</v>
-      </c>
+        <v>-2.564253556672622</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.4158592565477378</v>
+        <v>-0.3826155236707098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6435466127429142</v>
+        <v>-0.7037327903966991</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7416908580475009</v>
+        <v>-0.7933716198150194</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.602914684404839</v>
+        <v>2.439031444555624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.147364214419104</v>
+        <v>4.304273305191344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.108134910982845</v>
+        <v>2.910326324354693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.592432771480597</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>6.713050152755604</v>
-      </c>
+        <v>1.43210837195064</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>3.17747701186223</v>
+        <v>2.716547436347268</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.873940571240282</v>
+        <v>1.628981745939854</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.2680026793313</v>
+        <v>1.913961847304037</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +933,7 @@
         <v>0.2508705206550582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4144793873657571</v>
+        <v>0.4144793873657567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9952639986155107</v>
@@ -949,7 +945,7 @@
         <v>0.1006001584542981</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.257300545129276</v>
+        <v>0.2573005451292758</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6194394870260347</v>
+        <v>-0.3257698837396703</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.80890887903881</v>
+        <v>-1.82788598304791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.510446617218537</v>
+        <v>-2.463887701871372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.151832780305355</v>
+        <v>-3.685835565316474</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1711656632581237</v>
+        <v>-0.1416265235922013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4545255218848709</v>
+        <v>-0.4748945648317338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6675903630296953</v>
+        <v>-0.6247389744317836</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8657925017293464</v>
+        <v>-0.9230464641165316</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.877455987510738</v>
+        <v>6.426747081019219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.269623636616365</v>
+        <v>4.386753547028206</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.710469701568998</v>
+        <v>2.572751700605072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.44571674515876</v>
+        <v>2.431135687234226</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.522127736079539</v>
+        <v>4.183796637561385</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.145010017741725</v>
+        <v>2.598803602109736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.379257765782576</v>
+        <v>2.202326203946945</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8.814174651994337</v>
+        <v>8.775007494592622</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1033,7 @@
         <v>-1.37814186150077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2303076844100683</v>
+        <v>0.2303076844100679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2131693065650193</v>
@@ -1049,7 +1045,7 @@
         <v>-0.2731052482106391</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0845360216089852</v>
+        <v>0.08453602160898507</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.760917973196843</v>
+        <v>-5.059498645280212</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.85416495810826</v>
+        <v>-2.815575929398225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.231732170339524</v>
+        <v>-6.383567484455114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.602155533603287</v>
+        <v>-2.846665230052182</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7814947343646386</v>
+        <v>-0.7852893059071467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7227074903519592</v>
+        <v>-0.7433199296922249</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.829273090829488</v>
+        <v>-0.8144161651382292</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6389518267259545</v>
+        <v>-0.7114529824267211</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.48292883700416</v>
+        <v>3.243540508945576</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.835724189421762</v>
+        <v>3.958635978915869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.074720373093045</v>
+        <v>3.17042504003546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.611354234979735</v>
+        <v>3.419575870258371</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.341894822433391</v>
+        <v>1.3568645163715</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.113409206526736</v>
+        <v>4.498772166909328</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.556154741164233</v>
+        <v>1.765433022743678</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.142335071337552</v>
+        <v>3.120081478924835</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1133,7 @@
         <v>4.231411890796926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5097941729220736</v>
+        <v>-0.5097941729220734</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.926831839346738</v>
@@ -1149,7 +1145,7 @@
         <v>2.619252836786958</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2815256045754084</v>
+        <v>-0.2815256045754083</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1156,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.524306127950608</v>
+        <v>-1.072142474936668</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.517674267135289</v>
+        <v>-1.401766007305364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.130493943582946</v>
+        <v>1.149797458552229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.100322816117997</v>
+        <v>-3.013017410384712</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.4143787615623417</v>
+        <v>-0.4307378181913444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.103234670500516</v>
+        <v>0.2425441015300769</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8722054183394826</v>
+        <v>-0.9232552350829331</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1186,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.170156231449452</v>
+        <v>3.373041536597669</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.532337566465208</v>
+        <v>5.655276058787432</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.664143160779485</v>
+        <v>7.871386565457561</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.227031206277007</v>
+        <v>1.1683545601382</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>4.183597715959249</v>
+        <v>4.223575562989058</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>13.03269571909391</v>
+        <v>14.69354991497058</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.356530804744398</v>
+        <v>2.088058803986985</v>
       </c>
     </row>
     <row r="22">
@@ -1256,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.943095232241524</v>
+        <v>-3.00907716351335</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.825583409694961</v>
+        <v>-3.64643873741293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9338346279752323</v>
+        <v>-0.7961157387103805</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.285556148362335</v>
+        <v>-1.267951368832486</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6060515678531007</v>
+        <v>-0.618579541625031</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6507022288307058</v>
+        <v>-0.6560537871785769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4685295118016247</v>
+        <v>-0.4252169416728184</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2341031147442512</v>
+        <v>-0.2387354541143025</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.451363532942416</v>
+        <v>1.318685000089862</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.050267352262534</v>
+        <v>0.8003569998515262</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.773823816810164</v>
+        <v>2.929010459258472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.80540978216911</v>
+        <v>3.930382414382863</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6184603824437337</v>
+        <v>0.5507283531022885</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4807001887482163</v>
+        <v>0.3556119713598514</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.000310738730268</v>
+        <v>4.972263372365933</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.29093634334205</v>
+        <v>1.28358262081777</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1329,7 @@
         <v>-0.0520000881157244</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5714036971537175</v>
+        <v>0.5714036971537169</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.3069295757477644</v>
@@ -1345,7 +1341,7 @@
         <v>-0.01542668916051445</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1401678100355597</v>
+        <v>0.1401678100355595</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-4.270442349901201</v>
+        <v>-4.19012362329914</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.141531291945154</v>
+        <v>-0.8909497312051434</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.895639865031916</v>
+        <v>-1.901436411076652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.62585095006792</v>
+        <v>-1.581919521229584</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6321837871778229</v>
+        <v>-0.6049138553777781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3236870510843682</v>
+        <v>-0.2443959660910297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4584823449952084</v>
+        <v>-0.4438194555216697</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3277337467212245</v>
+        <v>-0.3206303992566897</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8660277995421394</v>
+        <v>0.8790702366721828</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.012411321487974</v>
+        <v>3.061268193537829</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.941387644145282</v>
+        <v>1.848929731364905</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.716730188393784</v>
+        <v>2.58467958250087</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2607951314814031</v>
+        <v>0.2436477542378257</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.384171926344563</v>
+        <v>1.484122736988809</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8986644486689639</v>
+        <v>0.8014366745621618</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9321481635956108</v>
+        <v>0.8767338292638663</v>
       </c>
     </row>
     <row r="28">
@@ -1456,28 +1452,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9472627419751101</v>
+        <v>-0.993157796127605</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6872595287366307</v>
+        <v>-0.6917919749086543</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2257111256789033</v>
+        <v>-0.2477481565013739</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3057972226509261</v>
+        <v>-0.2754082206866175</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2400634491457199</v>
+        <v>-0.2496771434645277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.178961817009154</v>
+        <v>-0.1802236671376111</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.07592768535687815</v>
+        <v>-0.07916097729019855</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.07703792918771739</v>
+        <v>-0.07296908073501127</v>
       </c>
     </row>
     <row r="30">
@@ -1488,28 +1484,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.067872058499471</v>
+        <v>0.956345892088196</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.216389860108247</v>
+        <v>1.279846762204058</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.704290601889413</v>
+        <v>1.675952981604063</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.765726594477638</v>
+        <v>1.71527490056979</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3751108846588477</v>
+        <v>0.3211167087586712</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4355181877202106</v>
+        <v>0.4578717285484155</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6979683810394143</v>
+        <v>0.7027772095247505</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.592546421829852</v>
+        <v>0.5866569342597613</v>
       </c>
     </row>
     <row r="31">
